--- a/время.xlsx
+++ b/время.xlsx
@@ -77,11 +77,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,6 +101,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -228,7 +234,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -312,6 +318,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -356,25 +363,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>251</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>511</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>813</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,6 +434,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -471,25 +479,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1157</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2584</c:v>
+                  <c:v>2216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3709</c:v>
+                  <c:v>3864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,6 +550,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -586,25 +595,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>496</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1755</c:v>
+                  <c:v>1475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,11 +628,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="2631611"/>
-        <c:axId val="97468100"/>
+        <c:axId val="13132098"/>
+        <c:axId val="52559140"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2631611"/>
+        <c:axId val="13132098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97468100"/>
+        <c:crossAx val="52559140"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97468100"/>
+        <c:axId val="52559140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +748,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -761,7 +770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2631611"/>
+        <c:crossAx val="13132098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -802,14 +811,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -893,6 +902,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -937,25 +947,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>644</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>980</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,6 +1018,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1052,25 +1063,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>985</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1714</c:v>
+                  <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2698</c:v>
+                  <c:v>2758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,6 +1134,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1167,25 +1179,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>871</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2022</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3239</c:v>
+                  <c:v>2732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,11 +1212,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31111129"/>
-        <c:axId val="72507033"/>
+        <c:axId val="70881684"/>
+        <c:axId val="45157442"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31111129"/>
+        <c:axId val="70881684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72507033"/>
+        <c:crossAx val="45157442"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72507033"/>
+        <c:axId val="45157442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1332,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1342,7 +1354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31111129"/>
+        <c:crossAx val="70881684"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,14 +1395,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1474,6 +1486,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1518,25 +1531,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1389</c:v>
+                  <c:v>1208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1975</c:v>
+                  <c:v>1928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,6 +1602,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1636,22 +1650,22 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>307</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2329</c:v>
+                  <c:v>1858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3953</c:v>
+                  <c:v>3710</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6049</c:v>
+                  <c:v>6054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,6 +1718,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1748,25 +1763,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1908</c:v>
+                  <c:v>2203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4345</c:v>
+                  <c:v>4418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7132</c:v>
+                  <c:v>5694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,11 +1796,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="75957724"/>
-        <c:axId val="39767139"/>
+        <c:axId val="35405187"/>
+        <c:axId val="99131299"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75957724"/>
+        <c:axId val="35405187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1865,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39767139"/>
+        <c:crossAx val="99131299"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1858,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39767139"/>
+        <c:axId val="99131299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1916,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1923,7 +1938,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75957724"/>
+        <c:crossAx val="35405187"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1964,14 +1979,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2055,6 +2070,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2105,7 +2121,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2117,7 +2133,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,6 +2186,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2232,7 +2249,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,6 +2302,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2362,11 +2380,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83755873"/>
-        <c:axId val="83275374"/>
+        <c:axId val="28290254"/>
+        <c:axId val="60977678"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83755873"/>
+        <c:axId val="28290254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83275374"/>
+        <c:crossAx val="60977678"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83275374"/>
+        <c:axId val="60977678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2500,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2504,7 +2522,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83755873"/>
+        <c:crossAx val="28290254"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2545,14 +2563,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2636,6 +2654,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2680,25 +2699,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>174</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2475</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6898</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12028</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192635</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>612126</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1300675</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,6 +2770,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2795,25 +2815,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2327</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6053</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11745</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210035</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>678195</c:v>
+                  <c:v>2803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1365007</c:v>
+                  <c:v>4203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,11 +2848,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67383067"/>
-        <c:axId val="56331966"/>
+        <c:axId val="11058515"/>
+        <c:axId val="85904878"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67383067"/>
+        <c:axId val="11058515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +2917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56331966"/>
+        <c:crossAx val="85904878"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,7 +2925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56331966"/>
+        <c:axId val="85904878"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2968,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2970,7 +2990,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67383067"/>
+        <c:crossAx val="11058515"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3011,7 +3031,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -3029,9 +3049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>538920</xdr:colOff>
+      <xdr:colOff>538560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3040,7 +3060,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="186840" y="1979280"/>
-        <a:ext cx="6512760" cy="3337200"/>
+        <a:ext cx="6510960" cy="3336840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3059,9 +3079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3069,8 +3089,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6719400" y="1998360"/>
-        <a:ext cx="5961600" cy="3289680"/>
+        <a:off x="6717960" y="1998360"/>
+        <a:ext cx="5960520" cy="3289320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3089,9 +3109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>521640</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3100,7 +3120,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="255960" y="5392800"/>
-        <a:ext cx="6426360" cy="3620160"/>
+        <a:ext cx="6424560" cy="3619800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3119,9 +3139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1529280</xdr:colOff>
+      <xdr:colOff>1528920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3129,8 +3149,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6738840" y="5373720"/>
-        <a:ext cx="5932440" cy="3643200"/>
+        <a:off x="6737400" y="5373720"/>
+        <a:ext cx="5932440" cy="3642840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3149,9 +3169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>534600</xdr:colOff>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3159,8 +3179,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12818880" y="5402520"/>
-        <a:ext cx="6404400" cy="3643200"/>
+        <a:off x="12816720" y="5402520"/>
+        <a:ext cx="6402240" cy="3642840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3181,27 +3201,27 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,37 +3282,37 @@
         <v>20000</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>0</v>
@@ -3312,37 +3332,37 @@
         <v>80000</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2475</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2327</v>
+        <v>78</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0</v>
@@ -3362,40 +3382,40 @@
         <v>140000</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>6898</v>
+        <v>85</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>249</v>
+        <v>346</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>6053</v>
+        <v>335</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0</v>
@@ -3412,37 +3432,37 @@
         <v>200000</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>12028</v>
+        <v>72</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>11745</v>
+        <v>205</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -3462,37 +3482,37 @@
         <v>800000</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>626</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>192635</v>
+        <v>315</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1157</v>
+        <v>1134</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>985</v>
+        <v>825</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>2329</v>
+        <v>1858</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>210035</v>
+        <v>1313</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>871</v>
+        <v>1075</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1908</v>
+        <v>2203</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>6</v>
@@ -3512,37 +3532,37 @@
         <v>1400000</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1389</v>
+        <v>1208</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>612126</v>
+        <v>619</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2584</v>
+        <v>2216</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1714</v>
+        <v>1583</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3953</v>
+        <v>3710</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>678195</v>
+        <v>2803</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1100</v>
+        <v>992</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2022</v>
+        <v>2004</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>4345</v>
+        <v>4418</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>11</v>
@@ -3562,43 +3582,43 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>980</v>
+        <v>947</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1975</v>
+        <v>1928</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1300675</v>
+        <v>1274</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3709</v>
+        <v>3864</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2698</v>
+        <v>2758</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>6049</v>
+        <v>6054</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1365007</v>
+        <v>4203</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1755</v>
+        <v>1475</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3239</v>
+        <v>2732</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>7132</v>
+        <v>5694</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>

--- a/время.xlsx
+++ b/время.xlsx
@@ -366,22 +366,22 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>825</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,25 +479,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1134</c:v>
+                  <c:v>1195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2216</c:v>
+                  <c:v>2302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3864</c:v>
+                  <c:v>3493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,25 +595,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>524</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>992</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1475</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,11 +628,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="13132098"/>
-        <c:axId val="52559140"/>
+        <c:axId val="68152050"/>
+        <c:axId val="16350734"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13132098"/>
+        <c:axId val="68152050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52559140"/>
+        <c:crossAx val="16350734"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52559140"/>
+        <c:axId val="16350734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13132098"/>
+        <c:crossAx val="68152050"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -947,25 +947,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>603</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>947</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,25 +1063,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>825</c:v>
+                  <c:v>787</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2758</c:v>
+                  <c:v>2409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,25 +1179,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1075</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2004</c:v>
+                  <c:v>1486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2732</c:v>
+                  <c:v>2261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,11 +1212,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70881684"/>
-        <c:axId val="45157442"/>
+        <c:axId val="95936854"/>
+        <c:axId val="33829777"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70881684"/>
+        <c:axId val="95936854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45157442"/>
+        <c:crossAx val="33829777"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1289,7 +1289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45157442"/>
+        <c:axId val="33829777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70881684"/>
+        <c:crossAx val="95936854"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1531,25 +1531,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>626</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1208</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1928</c:v>
+                  <c:v>1824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,25 +1647,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1858</c:v>
+                  <c:v>1838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3710</c:v>
+                  <c:v>3676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6054</c:v>
+                  <c:v>5627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,25 +1763,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>419</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2203</c:v>
+                  <c:v>1562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4418</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5694</c:v>
+                  <c:v>5007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,11 +1796,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="35405187"/>
-        <c:axId val="99131299"/>
+        <c:axId val="859192"/>
+        <c:axId val="10330252"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35405187"/>
+        <c:axId val="859192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1865,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99131299"/>
+        <c:crossAx val="10330252"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1873,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99131299"/>
+        <c:axId val="10330252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +1938,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35405187"/>
+        <c:crossAx val="859192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2118,7 +2118,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -2133,7 +2133,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,10 +2246,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,11 +2380,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="28290254"/>
-        <c:axId val="60977678"/>
+        <c:axId val="13553596"/>
+        <c:axId val="83012507"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28290254"/>
+        <c:axId val="13553596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60977678"/>
+        <c:crossAx val="83012507"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60977678"/>
+        <c:axId val="83012507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2522,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28290254"/>
+        <c:crossAx val="13553596"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2699,25 +2699,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>619</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1274</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2815,25 +2815,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>205</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1313</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2803</c:v>
+                  <c:v>2655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4203</c:v>
+                  <c:v>4091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,11 +2848,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11058515"/>
-        <c:axId val="85904878"/>
+        <c:axId val="64853049"/>
+        <c:axId val="46720150"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11058515"/>
+        <c:axId val="64853049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85904878"/>
+        <c:crossAx val="46720150"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2925,7 +2925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85904878"/>
+        <c:axId val="46720150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +2990,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11058515"/>
+        <c:crossAx val="64853049"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3049,9 +3049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>538560</xdr:colOff>
+      <xdr:colOff>538200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3060,7 +3060,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="186840" y="1979280"/>
-        <a:ext cx="6510960" cy="3336840"/>
+        <a:ext cx="6509520" cy="3336480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3079,9 +3079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3089,8 +3089,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6717960" y="1998360"/>
-        <a:ext cx="5960520" cy="3289320"/>
+        <a:off x="6716880" y="1998360"/>
+        <a:ext cx="5960160" cy="3288960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3109,9 +3109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3120,7 +3120,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="255960" y="5392800"/>
-        <a:ext cx="6424560" cy="3619800"/>
+        <a:ext cx="6423120" cy="3619440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3139,9 +3139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1528920</xdr:colOff>
+      <xdr:colOff>1528560</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3149,8 +3149,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6737400" y="5373720"/>
-        <a:ext cx="5932440" cy="3642840"/>
+        <a:off x="6736320" y="5373720"/>
+        <a:ext cx="5931720" cy="3642480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3169,9 +3169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3179,8 +3179,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12816720" y="5402520"/>
-        <a:ext cx="6402240" cy="3642840"/>
+        <a:off x="12815640" y="5402520"/>
+        <a:ext cx="6401520" cy="3642480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3200,16 +3200,16 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.49"/>
@@ -3285,34 +3285,34 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="M2" s="0" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>0</v>
@@ -3332,40 +3332,40 @@
         <v>80000</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>34</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>0</v>
@@ -3382,37 +3382,37 @@
         <v>140000</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
@@ -3435,34 +3435,34 @@
         <v>55</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -3482,37 +3482,37 @@
         <v>800000</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1134</v>
+        <v>1195</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>825</v>
+        <v>787</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1858</v>
+        <v>1838</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1313</v>
+        <v>1268</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1075</v>
+        <v>731</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2203</v>
+        <v>1562</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>6</v>
@@ -3532,43 +3532,43 @@
         <v>1400000</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1208</v>
+        <v>1170</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2216</v>
+        <v>2302</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1583</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3710</v>
+        <v>3676</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2803</v>
+        <v>2655</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2004</v>
+        <v>1486</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>4418</v>
+        <v>3150</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>11</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>0</v>
@@ -3582,43 +3582,43 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>947</v>
+        <v>837</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1928</v>
+        <v>1824</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1274</v>
+        <v>1113</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3864</v>
+        <v>3493</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2758</v>
+        <v>2409</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>6054</v>
+        <v>5627</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>4203</v>
+        <v>4091</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1475</v>
+        <v>1449</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>2732</v>
+        <v>2261</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>5694</v>
+        <v>5007</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
